--- a/week3/uipathAuto/challenge.xlsx
+++ b/week3/uipathAuto/challenge.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\week3\uipathAuto\.tmh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\week3\uipathAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058FDF4B-1D6D-4976-8FDF-ACB67A9BF4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3646132-214B-42AB-89D8-67987B32FECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2390" yWindow="3430" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1370" yWindow="2410" windowWidth="16800" windowHeight="9670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fakes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>First Name</t>
   </si>
@@ -614,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
@@ -1877,4 +1878,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1D0F97-6CE0-40BC-8BED-DE0A7F211F49}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>